--- a/data/n2-pXRF.xlsx
+++ b/data/n2-pXRF.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t xml:space="preserve">Sample</t>
   </si>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t xml:space="preserve">RLZ_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST %</t>
   </si>
   <si>
     <t xml:space="preserve">TI-1</t>
@@ -707,7 +704,7 @@
         <v>0.302704194260486</v>
       </c>
       <c r="G2" t="n">
-        <v>0.52406836100093</v>
+        <v>0.521862762461381</v>
       </c>
       <c r="H2" t="n">
         <v>0.103975535168196</v>
@@ -742,7 +739,7 @@
         <v>0.202262693156733</v>
       </c>
       <c r="G3" t="n">
-        <v>0.408765486508986</v>
+        <v>0.406025542633371</v>
       </c>
       <c r="H3" t="n">
         <v>0.0825688073394495</v>
@@ -777,7 +774,7 @@
         <v>0.211368653421634</v>
       </c>
       <c r="G4" t="n">
-        <v>0.397463395524215</v>
+        <v>0.394671074640376</v>
       </c>
       <c r="H4" t="n">
         <v>0.0489296636085627</v>
@@ -812,7 +809,7 @@
         <v>0.185706401766004</v>
       </c>
       <c r="G5" t="n">
-        <v>0.413211889721365</v>
+        <v>0.410492551705138</v>
       </c>
       <c r="H5" t="n">
         <v>0.0764525993883792</v>
@@ -847,7 +844,7 @@
         <v>0.207229580573951</v>
       </c>
       <c r="G6" t="n">
-        <v>0.508496155917928</v>
+        <v>0.506218391483165</v>
       </c>
       <c r="H6" t="n">
         <v>0.0611620795107034</v>
@@ -882,7 +879,7 @@
         <v>0.313465783664459</v>
       </c>
       <c r="G7" t="n">
-        <v>0.621957788551001</v>
+        <v>0.620205836629474</v>
       </c>
       <c r="H7" t="n">
         <v>0.116207951070336</v>
@@ -917,7 +914,7 @@
         <v>0.193708609271523</v>
       </c>
       <c r="G8" t="n">
-        <v>0.470995543802948</v>
+        <v>0.468543991184053</v>
       </c>
       <c r="H8" t="n">
         <v>0.0581039755351682</v>
@@ -952,7 +949,7 @@
         <v>0.251931567328918</v>
       </c>
       <c r="G9" t="n">
-        <v>0.499730669408942</v>
+        <v>0.497412283291025</v>
       </c>
       <c r="H9" t="n">
         <v>0.0795107033639144</v>
@@ -987,7 +984,7 @@
         <v>0.44757174392936</v>
       </c>
       <c r="G10" t="n">
-        <v>0.862621810880956</v>
+        <v>0.861985162445638</v>
       </c>
       <c r="H10" t="n">
         <v>0.091743119266055</v>
@@ -1022,7 +1019,7 @@
         <v>0.260761589403974</v>
       </c>
       <c r="G11" t="n">
-        <v>0.578414377356643</v>
+        <v>0.576460633252652</v>
       </c>
       <c r="H11" t="n">
         <v>0.091743119266055</v>
@@ -1057,7 +1054,7 @@
         <v>0.18901766004415</v>
       </c>
       <c r="G12" t="n">
-        <v>0.324440526908575</v>
+        <v>0.321309797902277</v>
       </c>
       <c r="H12" t="n">
         <v>0.0428134556574924</v>
@@ -1092,7 +1089,7 @@
         <v>0.188741721854305</v>
       </c>
       <c r="G13" t="n">
-        <v>0.33037559375153</v>
+        <v>0.327272369482653</v>
       </c>
       <c r="H13" t="n">
         <v>0.0397553516819572</v>
@@ -1127,7 +1124,7 @@
         <v>0.2530353200883</v>
       </c>
       <c r="G14" t="n">
-        <v>0.435189265951716</v>
+        <v>0.432571777161186</v>
       </c>
       <c r="H14" t="n">
         <v>0.0703363914373089</v>
@@ -1162,7 +1159,7 @@
         <v>0.218818984547461</v>
       </c>
       <c r="G15" t="n">
-        <v>0.443190832966064</v>
+        <v>0.440610425644961</v>
       </c>
       <c r="H15" t="n">
         <v>0.073394495412844</v>
@@ -1197,7 +1194,7 @@
         <v>0.360651214128035</v>
       </c>
       <c r="G16" t="n">
-        <v>0.471896577053034</v>
+        <v>0.469449200070842</v>
       </c>
       <c r="H16" t="n">
         <v>0.0764525993883792</v>
@@ -1232,7 +1229,7 @@
         <v>0.217991169977925</v>
       </c>
       <c r="G17" t="n">
-        <v>0.37857107879144</v>
+        <v>0.37569120569888</v>
       </c>
       <c r="H17" t="n">
         <v>0.0642201834862385</v>
@@ -1267,7 +1264,7 @@
         <v>0.332505518763797</v>
       </c>
       <c r="G18" t="n">
-        <v>0.470368738063758</v>
+        <v>0.467914280654112</v>
       </c>
       <c r="H18" t="n">
         <v>0.0703363914373089</v>
@@ -1302,7 +1299,7 @@
         <v>0.240273178807947</v>
       </c>
       <c r="G19" t="n">
-        <v>0.406757749375643</v>
+        <v>0.404008501092154</v>
       </c>
       <c r="H19" t="n">
         <v>0.055045871559633</v>
@@ -1337,7 +1334,7 @@
         <v>0.383278145695364</v>
       </c>
       <c r="G20" t="n">
-        <v>0.782841192889672</v>
+        <v>0.781834819056615</v>
       </c>
       <c r="H20" t="n">
         <v>0.0856269113149847</v>
@@ -1372,7 +1369,7 @@
         <v>0.310430463576159</v>
       </c>
       <c r="G21" t="n">
-        <v>0.677136281279075</v>
+        <v>0.675640041718323</v>
       </c>
       <c r="H21" t="n">
         <v>0.0611620795107034</v>
@@ -1407,7 +1404,7 @@
         <v>0.344922737306843</v>
       </c>
       <c r="G22" t="n">
-        <v>0.733264776455609</v>
+        <v>0.732028651829112</v>
       </c>
       <c r="H22" t="n">
         <v>0.0825688073394495</v>
@@ -1442,7 +1439,7 @@
         <v>0.274282560706402</v>
       </c>
       <c r="G23" t="n">
-        <v>0.419617060868714</v>
+        <v>0.41692740618297</v>
       </c>
       <c r="H23" t="n">
         <v>0.0519877675840979</v>
@@ -1477,7 +1474,7 @@
         <v>0.211368653421634</v>
       </c>
       <c r="G24" t="n">
-        <v>0.391097399735566</v>
+        <v>0.388275577070665</v>
       </c>
       <c r="H24" t="n">
         <v>0.0519877675840979</v>
@@ -1512,7 +1509,7 @@
         <v>0.123620309050773</v>
       </c>
       <c r="G25" t="n">
-        <v>0.282140933352921</v>
+        <v>0.278814176358305</v>
       </c>
       <c r="H25" t="n">
         <v>0.0428134556574924</v>
@@ -1547,7 +1544,7 @@
         <v>0.27924944812362</v>
       </c>
       <c r="G26" t="n">
-        <v>0.525145683365163</v>
+        <v>0.522945077434717</v>
       </c>
       <c r="H26" t="n">
         <v>0.0458715596330275</v>
@@ -1582,7 +1579,7 @@
         <v>0.279525386313466</v>
       </c>
       <c r="G27" t="n">
-        <v>0.477067724401352</v>
+        <v>0.474644311942854</v>
       </c>
       <c r="H27" t="n">
         <v>0.0581039755351682</v>
@@ -1617,7 +1614,7 @@
         <v>0.240066225165563</v>
       </c>
       <c r="G28" t="n">
-        <v>0.360501444591352</v>
+        <v>0.357537831827932</v>
       </c>
       <c r="H28" t="n">
         <v>0.0856269113149847</v>
@@ -1652,7 +1649,7 @@
         <v>0.222682119205298</v>
       </c>
       <c r="G29" t="n">
-        <v>0.400754125654963</v>
+        <v>0.397977054922565</v>
       </c>
       <c r="H29" t="n">
         <v>0.0305810397553517</v>
@@ -1687,7 +1684,7 @@
         <v>0.331401766004415</v>
       </c>
       <c r="G30" t="n">
-        <v>0.475628029969149</v>
+        <v>0.473197945569396</v>
       </c>
       <c r="H30" t="n">
         <v>0.0825688073394495</v>
@@ -1722,7 +1719,7 @@
         <v>0.257174392935982</v>
       </c>
       <c r="G31" t="n">
-        <v>0.567151461730571</v>
+        <v>0.565145522167778</v>
       </c>
       <c r="H31" t="n">
         <v>0.0458715596330275</v>
@@ -1757,7 +1754,7 @@
         <v>0.31401766004415</v>
       </c>
       <c r="G32" t="n">
-        <v>0.566867440380001</v>
+        <v>0.564860184583899</v>
       </c>
       <c r="H32" t="n">
         <v>0.0795107033639143</v>
@@ -1792,7 +1789,7 @@
         <v>0.204470198675497</v>
       </c>
       <c r="G33" t="n">
-        <v>0.428774300964693</v>
+        <v>0.426127083456324</v>
       </c>
       <c r="H33" t="n">
         <v>0.036697247706422</v>
@@ -1827,7 +1824,7 @@
         <v>0.170805739514349</v>
       </c>
       <c r="G34" t="n">
-        <v>0.32536114783801</v>
+        <v>0.322234685243127</v>
       </c>
       <c r="H34" t="n">
         <v>0.073394495412844</v>
@@ -1862,7 +1859,7 @@
         <v>0.230132450331126</v>
       </c>
       <c r="G35" t="n">
-        <v>0.436237206796925</v>
+        <v>0.433624574453431</v>
       </c>
       <c r="H35" t="n">
         <v>0.0397553516819572</v>
@@ -1897,7 +1894,7 @@
         <v>0.238686534216336</v>
       </c>
       <c r="G36" t="n">
-        <v>0.421859850154253</v>
+        <v>0.419180589172915</v>
       </c>
       <c r="H36" t="n">
         <v>0.0458715596330275</v>
@@ -1932,7 +1929,7 @@
         <v>0.275110375275938</v>
       </c>
       <c r="G37" t="n">
-        <v>0.532089515694628</v>
+        <v>0.529921089399217</v>
       </c>
       <c r="H37" t="n">
         <v>0.036697247706422</v>
@@ -1967,7 +1964,7 @@
         <v>0.213024282560706</v>
       </c>
       <c r="G38" t="n">
-        <v>0.393741736447774</v>
+        <v>0.390932168368853</v>
       </c>
       <c r="H38" t="n">
         <v>0.0825688073394495</v>
@@ -2002,7 +1999,7 @@
         <v>0.309602649006623</v>
       </c>
       <c r="G39" t="n">
-        <v>0.591058224376867</v>
+        <v>0.589163075348801</v>
       </c>
       <c r="H39" t="n">
         <v>0.0581039755351682</v>
@@ -2037,7 +2034,7 @@
         <v>0.377483443708609</v>
       </c>
       <c r="G40" t="n">
-        <v>0.711561627736154</v>
+        <v>0.710224924729913</v>
       </c>
       <c r="H40" t="n">
         <v>0.0856269113149847</v>
@@ -2072,7 +2069,7 @@
         <v>0.353752759381898</v>
       </c>
       <c r="G41" t="n">
-        <v>0.656118701336859</v>
+        <v>0.654525060511246</v>
       </c>
       <c r="H41" t="n">
         <v>0.073394495412844</v>
@@ -2107,7 +2104,7 @@
         <v>0.308222958057395</v>
       </c>
       <c r="G42" t="n">
-        <v>0.516380196856177</v>
+        <v>0.514138969242576</v>
       </c>
       <c r="H42" t="n">
         <v>0.103975535168196</v>
@@ -2142,7 +2139,7 @@
         <v>0.22378587196468</v>
       </c>
       <c r="G43" t="n">
-        <v>0.395671122863719</v>
+        <v>0.392870496093827</v>
       </c>
       <c r="H43" t="n">
         <v>0.0581039755351682</v>
@@ -2177,7 +2174,7 @@
         <v>0.359823399558499</v>
       </c>
       <c r="G44" t="n">
-        <v>0.556133392096371</v>
+        <v>0.554076391758663</v>
       </c>
       <c r="H44" t="n">
         <v>0.0978593272171254</v>
@@ -2212,7 +2209,7 @@
         <v>0.283388520971302</v>
       </c>
       <c r="G45" t="n">
-        <v>0.532931785906665</v>
+        <v>0.530767262923825</v>
       </c>
       <c r="H45" t="n">
         <v>0.0519877675840979</v>
@@ -2247,7 +2244,7 @@
         <v>0.168598233995585</v>
       </c>
       <c r="G46" t="n">
-        <v>0.313608540228196</v>
+        <v>0.310427612806738</v>
       </c>
       <c r="H46" t="n">
         <v>0.17737003058104</v>
@@ -2282,7 +2279,7 @@
         <v>0.192604856512141</v>
       </c>
       <c r="G47" t="n">
-        <v>0.413192302042016</v>
+        <v>0.410472873251077</v>
       </c>
       <c r="H47" t="n">
         <v>0.18960244648318</v>
@@ -2317,7 +2314,7 @@
         <v>0.188741721854305</v>
       </c>
       <c r="G48" t="n">
-        <v>0.784868517702365</v>
+        <v>0.783871539051892</v>
       </c>
       <c r="H48" t="n">
         <v>0.155963302752294</v>
@@ -2352,7 +2349,7 @@
         <v>0.230132450331126</v>
       </c>
       <c r="G49" t="n">
-        <v>0.544145732334362</v>
+        <v>0.542033177873546</v>
       </c>
       <c r="H49" t="n">
         <v>0.159021406727829</v>
@@ -2387,7 +2384,7 @@
         <v>0.197847682119205</v>
       </c>
       <c r="G50" t="n">
-        <v>0.403878360511238</v>
+        <v>0.401115768345239</v>
       </c>
       <c r="H50" t="n">
         <v>0.0825688073394495</v>
@@ -2422,7 +2419,7 @@
         <v>0.473233995584989</v>
       </c>
       <c r="G51" t="n">
-        <v>0.897164683414132</v>
+        <v>0.896688116181593</v>
       </c>
       <c r="H51" t="n">
         <v>0.287461773700306</v>
@@ -2457,7 +2454,7 @@
         <v>0.181015452538631</v>
       </c>
       <c r="G52" t="n">
-        <v>0.359394740708095</v>
+        <v>0.356425999173505</v>
       </c>
       <c r="H52" t="n">
         <v>0.155963302752294</v>
@@ -2492,7 +2489,7 @@
         <v>0.209437086092715</v>
       </c>
       <c r="G53" t="n">
-        <v>0.404152588022134</v>
+        <v>0.401391266702088</v>
       </c>
       <c r="H53" t="n">
         <v>0.314984709480122</v>
@@ -2527,7 +2524,7 @@
         <v>0.172185430463576</v>
       </c>
       <c r="G54" t="n">
-        <v>0.385005631457813</v>
+        <v>0.382155577857804</v>
       </c>
       <c r="H54" t="n">
         <v>0.311926605504587</v>
@@ -2562,7 +2559,7 @@
         <v>0.187637969094923</v>
       </c>
       <c r="G55" t="n">
-        <v>0.322334851378483</v>
+        <v>0.319194364090757</v>
       </c>
       <c r="H55" t="n">
         <v>0.131498470948012</v>
@@ -2597,7 +2594,7 @@
         <v>0.301324503311258</v>
       </c>
       <c r="G56" t="n">
-        <v>0.411733019930464</v>
+        <v>0.409006828423559</v>
       </c>
       <c r="H56" t="n">
         <v>0.149847094801223</v>
@@ -2632,7 +2629,7 @@
         <v>0.15424944812362</v>
       </c>
       <c r="G57" t="n">
-        <v>0.142617893345086</v>
+        <v>0.138644548084303</v>
       </c>
       <c r="H57" t="n">
         <v>0.290519877675841</v>
@@ -2667,7 +2664,7 @@
         <v>0.251931567328918</v>
       </c>
       <c r="G58" t="n">
-        <v>0.323294647666618</v>
+        <v>0.320158608339729</v>
       </c>
       <c r="H58" t="n">
         <v>0.314984709480122</v>
@@ -2702,7 +2699,7 @@
         <v>0.359823399558499</v>
       </c>
       <c r="G59" t="n">
-        <v>0.40881445570736</v>
+        <v>0.406074738768522</v>
       </c>
       <c r="H59" t="n">
         <v>0.168195718654434</v>
@@ -2737,7 +2734,7 @@
         <v>0.525386313465784</v>
       </c>
       <c r="G60" t="n">
-        <v>0.504088928064248</v>
+        <v>0.501790739319519</v>
       </c>
       <c r="H60" t="n">
         <v>0.168195718654434</v>
@@ -2772,7 +2769,7 @@
         <v>0.252207505518764</v>
       </c>
       <c r="G61" t="n">
-        <v>0.388541207580432</v>
+        <v>0.385707538815751</v>
       </c>
       <c r="H61" t="n">
         <v>0.174311926605505</v>
@@ -2807,7 +2804,7 @@
         <v>0.222958057395144</v>
       </c>
       <c r="G62" t="n">
-        <v>0.417452622300573</v>
+        <v>0.414752937009269</v>
       </c>
       <c r="H62" t="n">
         <v>0.198776758409786</v>
@@ -2842,7 +2839,7 @@
         <v>0.0747792494481236</v>
       </c>
       <c r="G63" t="n">
-        <v>0.13356838548553</v>
+        <v>0.129553102308283</v>
       </c>
       <c r="H63" t="n">
         <v>0.559633027522936</v>
@@ -2877,7 +2874,7 @@
         <v>0.0767108167770419</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0913079672885755</v>
+        <v>0.0870968376724325</v>
       </c>
       <c r="H64" t="n">
         <v>0.431192660550459</v>
@@ -2912,7 +2909,7 @@
         <v>0.259105960264901</v>
       </c>
       <c r="G65" t="n">
-        <v>0.33888644042897</v>
+        <v>0.335822657772005</v>
       </c>
       <c r="H65" t="n">
         <v>0.376146788990826</v>
@@ -2947,7 +2944,7 @@
         <v>0.175496688741722</v>
       </c>
       <c r="G66" t="n">
-        <v>0.234268645022281</v>
+        <v>0.230720034634079</v>
       </c>
       <c r="H66" t="n">
         <v>0.299694189602446</v>
@@ -2982,7 +2979,7 @@
         <v>0.0607064017660044</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0716909064198619</v>
+        <v>0.0673888659306925</v>
       </c>
       <c r="H67" t="n">
         <v>0.27217125382263</v>
@@ -3017,7 +3014,7 @@
         <v>0.331401766004415</v>
       </c>
       <c r="G68" t="n">
-        <v>0.151628225845943</v>
+        <v>0.147696636952201</v>
       </c>
       <c r="H68" t="n">
         <v>0.244648318042813</v>
@@ -3052,7 +3049,7 @@
         <v>0.4969646799117</v>
       </c>
       <c r="G69" t="n">
-        <v>0.192821115518339</v>
+        <v>0.189080425841746</v>
       </c>
       <c r="H69" t="n">
         <v>0.281345565749235</v>
@@ -3087,7 +3084,7 @@
         <v>0.231236203090508</v>
       </c>
       <c r="G70" t="n">
-        <v>0.394936584888105</v>
+        <v>0.392132554066553</v>
       </c>
       <c r="H70" t="n">
         <v>0.186544342507645</v>
@@ -3122,7 +3119,7 @@
         <v>0.322847682119205</v>
       </c>
       <c r="G71" t="n">
-        <v>0.47496204887126</v>
+        <v>0.472528878131334</v>
       </c>
       <c r="H71" t="n">
         <v>0.217125382262997</v>
@@ -3157,7 +3154,7 @@
         <v>0.164183222958057</v>
       </c>
       <c r="G72" t="n">
-        <v>0.305753880808971</v>
+        <v>0.302536552728418</v>
       </c>
       <c r="H72" t="n">
         <v>0.0244648318042813</v>
@@ -3192,7 +3189,7 @@
         <v>0.365618101545254</v>
       </c>
       <c r="G73" t="n">
-        <v>0.316047206307233</v>
+        <v>0.312877580337289</v>
       </c>
       <c r="H73" t="n">
         <v>0.0244648318042813</v>
@@ -3227,7 +3224,7 @@
         <v>0.225441501103753</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4188825228931</v>
+        <v>0.416189464155696</v>
       </c>
       <c r="H74" t="n">
         <v>0.0519877675840979</v>
@@ -3262,7 +3259,7 @@
         <v>0.31705298013245</v>
       </c>
       <c r="G75" t="n">
-        <v>0.324469908427599</v>
+        <v>0.321339315583368</v>
       </c>
       <c r="H75" t="n">
         <v>0.308868501529052</v>
@@ -3297,7 +3294,7 @@
         <v>0.266832229580574</v>
       </c>
       <c r="G76" t="n">
-        <v>0.360511238431027</v>
+        <v>0.357547671054962</v>
       </c>
       <c r="H76" t="n">
         <v>0.302752293577982</v>
@@ -3332,7 +3329,7 @@
         <v>0.198399558498896</v>
       </c>
       <c r="G77" t="n">
-        <v>0.345565839087214</v>
+        <v>0.342533010606687</v>
       </c>
       <c r="H77" t="n">
         <v>0.0795107033639144</v>
@@ -3367,7 +3364,7 @@
         <v>0.466887417218543</v>
       </c>
       <c r="G78" t="n">
-        <v>0.744850888790951</v>
+        <v>0.743668457405986</v>
       </c>
       <c r="H78" t="n">
         <v>0.0825688073394495</v>
@@ -3402,7 +3399,7 @@
         <v>0.257726269315673</v>
       </c>
       <c r="G79" t="n">
-        <v>0.485715684834239</v>
+        <v>0.48333234941063</v>
       </c>
       <c r="H79" t="n">
         <v>0.0519877675840978</v>
@@ -3437,7 +3434,7 @@
         <v>0.227373068432671</v>
       </c>
       <c r="G80" t="n">
-        <v>0.652357866901719</v>
+        <v>0.650746797331602</v>
       </c>
       <c r="H80" t="n">
         <v>0.128440366972477</v>
@@ -3472,7 +3469,7 @@
         <v>0.213300220750552</v>
       </c>
       <c r="G81" t="n">
-        <v>0.490436315557514</v>
+        <v>0.488074856839247</v>
       </c>
       <c r="H81" t="n">
         <v>0.107033639143731</v>
@@ -3507,7 +3504,7 @@
         <v>0.317604856512141</v>
       </c>
       <c r="G82" t="n">
-        <v>0.494784780373145</v>
+        <v>0.492443473640711</v>
       </c>
       <c r="H82" t="n">
         <v>0.0581039755351682</v>
@@ -3542,7 +3539,7 @@
         <v>0.217991169977925</v>
       </c>
       <c r="G83" t="n">
-        <v>0.502042015572205</v>
+        <v>0.499734340870181</v>
       </c>
       <c r="H83" t="n">
         <v>0.0825688073394495</v>
@@ -3562,34 +3559,34 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>0.164558642603624</v>
+        <v>0.0813647132408694</v>
       </c>
       <c r="C84" t="n">
-        <v>0.495864513588027</v>
+        <v>0.268767231193383</v>
       </c>
       <c r="D84" t="n">
-        <v>0.962252043795061</v>
+        <v>0.606562746615383</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0747616658304064</v>
+        <v>0.0605452416792106</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0322847682119205</v>
+        <v>0.0146247240618102</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0806228882033201</v>
+        <v>0.0781431410748372</v>
       </c>
       <c r="H84" t="n">
-        <v>0.293577981651376</v>
+        <v>0.250764525993884</v>
       </c>
       <c r="I84" t="n">
-        <v>0.027027027027027</v>
+        <v>0.0630630630630631</v>
       </c>
       <c r="J84" t="n">
-        <v>0.427601809954751</v>
+        <v>0.402714932126697</v>
       </c>
       <c r="K84" t="n">
-        <v>0.157692307692308</v>
+        <v>0.125641025641026</v>
       </c>
     </row>
     <row r="85">
@@ -3597,34 +3594,34 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0813647132408694</v>
+        <v>0.125360311320783</v>
       </c>
       <c r="C85" t="n">
-        <v>0.268767231193383</v>
+        <v>0.447131416568203</v>
       </c>
       <c r="D85" t="n">
-        <v>0.606562746615383</v>
+        <v>0.653327408179267</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0605452416792106</v>
+        <v>0.0895355968110609</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0146247240618102</v>
+        <v>0.0328366445916115</v>
       </c>
       <c r="G85" t="n">
-        <v>0.082395573184467</v>
+        <v>0.0855127221205502</v>
       </c>
       <c r="H85" t="n">
-        <v>0.250764525993884</v>
+        <v>0.27217125382263</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0630630630630631</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="J85" t="n">
-        <v>0.402714932126697</v>
+        <v>0.307126696832579</v>
       </c>
       <c r="K85" t="n">
-        <v>0.125641025641026</v>
+        <v>0.0576923076923077</v>
       </c>
     </row>
     <row r="86">
@@ -3632,34 +3629,34 @@
         <v>95</v>
       </c>
       <c r="B86" t="n">
-        <v>0.125360311320783</v>
+        <v>0.0948743594055638</v>
       </c>
       <c r="C86" t="n">
-        <v>0.447131416568203</v>
+        <v>0.422318498096363</v>
       </c>
       <c r="D86" t="n">
-        <v>0.653327408179267</v>
+        <v>0.908831799688929</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0895355968110609</v>
+        <v>0.0219657690806712</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0328366445916115</v>
+        <v>0.0242825607064018</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0897311591009255</v>
+        <v>0.116161914320011</v>
       </c>
       <c r="H86" t="n">
-        <v>0.27217125382263</v>
+        <v>0.259938837920489</v>
       </c>
       <c r="I86" t="n">
-        <v>0.166666666666667</v>
+        <v>0.045045045045045</v>
       </c>
       <c r="J86" t="n">
-        <v>0.307126696832579</v>
+        <v>0.332956259426848</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.0551282051282051</v>
       </c>
     </row>
     <row r="87">
@@ -3667,34 +3664,34 @@
         <v>96</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0948743594055638</v>
+        <v>0.346751518691933</v>
       </c>
       <c r="C87" t="n">
-        <v>0.422318498096363</v>
+        <v>0.861310227123539</v>
       </c>
       <c r="D87" t="n">
-        <v>0.908831799688929</v>
+        <v>0.502260880447247</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0219657690806712</v>
+        <v>0.410771031945141</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0242825607064018</v>
+        <v>0.180739514348786</v>
       </c>
       <c r="G87" t="n">
-        <v>0.120238969688066</v>
+        <v>0.478009327587225</v>
       </c>
       <c r="H87" t="n">
-        <v>0.259938837920489</v>
+        <v>0.357798165137615</v>
       </c>
       <c r="I87" t="n">
-        <v>0.045045045045045</v>
+        <v>0.689189189189189</v>
       </c>
       <c r="J87" t="n">
-        <v>0.332956259426848</v>
+        <v>0.26263197586727</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0551282051282051</v>
+        <v>0.284615384615385</v>
       </c>
     </row>
     <row r="88">
@@ -3702,34 +3699,34 @@
         <v>97</v>
       </c>
       <c r="B88" t="n">
-        <v>0.346751518691933</v>
+        <v>0.403648991128302</v>
       </c>
       <c r="C88" t="n">
-        <v>0.861310227123539</v>
+        <v>0.814257581725089</v>
       </c>
       <c r="D88" t="n">
-        <v>0.502260880447247</v>
+        <v>0.475457220132243</v>
       </c>
       <c r="E88" t="n">
-        <v>0.410771031945141</v>
+        <v>0.469364999721247</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180739514348786</v>
+        <v>0.231512141280353</v>
       </c>
       <c r="G88" t="n">
-        <v>0.480417217570148</v>
+        <v>0.570842434618336</v>
       </c>
       <c r="H88" t="n">
-        <v>0.357798165137615</v>
+        <v>0.409785932721713</v>
       </c>
       <c r="I88" t="n">
-        <v>0.689189189189189</v>
+        <v>0.684684684684685</v>
       </c>
       <c r="J88" t="n">
-        <v>0.26263197586727</v>
+        <v>0.2526395173454</v>
       </c>
       <c r="K88" t="n">
-        <v>0.284615384615385</v>
+        <v>0.314102564102564</v>
       </c>
     </row>
     <row r="89">
@@ -3737,34 +3734,34 @@
         <v>98</v>
       </c>
       <c r="B89" t="n">
-        <v>0.403648991128302</v>
+        <v>0.270791844056375</v>
       </c>
       <c r="C89" t="n">
-        <v>0.814257581725089</v>
+        <v>0.314480766706052</v>
       </c>
       <c r="D89" t="n">
-        <v>0.475457220132243</v>
+        <v>0.537878845923009</v>
       </c>
       <c r="E89" t="n">
-        <v>0.469364999721247</v>
+        <v>0.395216591403245</v>
       </c>
       <c r="F89" t="n">
-        <v>0.231512141280353</v>
+        <v>0.070364238410596</v>
       </c>
       <c r="G89" t="n">
-        <v>0.572822094902306</v>
+        <v>0.329358285613082</v>
       </c>
       <c r="H89" t="n">
-        <v>0.409785932721713</v>
+        <v>0.201834862385321</v>
       </c>
       <c r="I89" t="n">
-        <v>0.684684684684685</v>
+        <v>0.297297297297297</v>
       </c>
       <c r="J89" t="n">
-        <v>0.2526395173454</v>
+        <v>0.218325791855204</v>
       </c>
       <c r="K89" t="n">
-        <v>0.314102564102564</v>
+        <v>0.220512820512821</v>
       </c>
     </row>
     <row r="90">
@@ -3772,34 +3769,34 @@
         <v>99</v>
       </c>
       <c r="B90" t="n">
-        <v>0.270791844056375</v>
+        <v>0.110227973435061</v>
       </c>
       <c r="C90" t="n">
-        <v>0.314480766706052</v>
+        <v>0.2855980044637</v>
       </c>
       <c r="D90" t="n">
-        <v>0.537878845923009</v>
+        <v>0.49113908532988</v>
       </c>
       <c r="E90" t="n">
-        <v>0.395216591403245</v>
+        <v>0.133188381557674</v>
       </c>
       <c r="F90" t="n">
-        <v>0.070364238410596</v>
+        <v>0.0303532008830022</v>
       </c>
       <c r="G90" t="n">
-        <v>0.332451887762597</v>
+        <v>0.0909439754412893</v>
       </c>
       <c r="H90" t="n">
-        <v>0.201834862385321</v>
+        <v>0.262996941896024</v>
       </c>
       <c r="I90" t="n">
-        <v>0.297297297297297</v>
+        <v>0.202702702702703</v>
       </c>
       <c r="J90" t="n">
-        <v>0.218325791855204</v>
+        <v>0.455693815987934</v>
       </c>
       <c r="K90" t="n">
-        <v>0.220512820512821</v>
+        <v>0.148717948717949</v>
       </c>
     </row>
     <row r="91">
@@ -3807,34 +3804,34 @@
         <v>100</v>
       </c>
       <c r="B91" t="n">
-        <v>0.110227973435061</v>
+        <v>0.214711618177688</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2855980044637</v>
+        <v>0.673913614283839</v>
       </c>
       <c r="D91" t="n">
-        <v>0.49113908532988</v>
+        <v>0.461330069390705</v>
       </c>
       <c r="E91" t="n">
-        <v>0.133188381557674</v>
+        <v>0.311702068350337</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0303532008830022</v>
+        <v>0.0943708609271523</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0951373586014397</v>
+        <v>0.263287876104453</v>
       </c>
       <c r="H91" t="n">
-        <v>0.262996941896024</v>
+        <v>0.27217125382263</v>
       </c>
       <c r="I91" t="n">
-        <v>0.202702702702703</v>
+        <v>0.495495495495495</v>
       </c>
       <c r="J91" t="n">
-        <v>0.455693815987934</v>
+        <v>0.28393665158371</v>
       </c>
       <c r="K91" t="n">
-        <v>0.148717948717949</v>
+        <v>0.191025641025641</v>
       </c>
     </row>
     <row r="92">
@@ -3842,68 +3839,33 @@
         <v>101</v>
       </c>
       <c r="B92" t="n">
-        <v>0.214711618177688</v>
+        <v>0.251478862227572</v>
       </c>
       <c r="C92" t="n">
-        <v>0.673913614283839</v>
+        <v>0.595720099776815</v>
       </c>
       <c r="D92" t="n">
-        <v>0.461330069390705</v>
+        <v>0.461489052511678</v>
       </c>
       <c r="E92" t="n">
-        <v>0.311702068350337</v>
+        <v>0.307130512348776</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0943708609271523</v>
+        <v>0.162251655629139</v>
       </c>
       <c r="G92" t="n">
-        <v>0.266686254346016</v>
+        <v>0.365133715095342</v>
       </c>
       <c r="H92" t="n">
         <v>0.27217125382263</v>
       </c>
       <c r="I92" t="n">
-        <v>0.495495495495495</v>
+        <v>0.657657657657658</v>
       </c>
       <c r="J92" t="n">
-        <v>0.28393665158371</v>
+        <v>0.283748114630468</v>
       </c>
       <c r="K92" t="n">
-        <v>0.191025641025641</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>102</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.251478862227572</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.595720099776815</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.461489052511678</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.307130512348776</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.162251655629139</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.368062288820332</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.27217125382263</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.657657657657658</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.283748114630468</v>
-      </c>
-      <c r="K93" t="n">
         <v>0.247435897435897</v>
       </c>
     </row>

--- a/data/n2-pXRF.xlsx
+++ b/data/n2-pXRF.xlsx
@@ -12,26 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">Sample</t>
   </si>
   <si>
-    <t xml:space="preserve">MgO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al2O3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SiO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CaO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ti</t>
   </si>
   <si>
@@ -47,13 +32,109 @@
     <t xml:space="preserve">Cu</t>
   </si>
   <si>
-    <t xml:space="preserve">Zn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P9</t>
   </si>
   <si>
     <t xml:space="preserve">PP-1</t>
@@ -464,862 +545,1224 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.541006475225225</v>
+        <v>0.0583332014246142</v>
       </c>
       <c r="C2" t="n">
-        <v>0.630421440261866</v>
+        <v>0.122185031463382</v>
       </c>
       <c r="D2" t="n">
-        <v>0.176706563066371</v>
+        <v>0.378663427472416</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0467280298293496</v>
+        <v>0.2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0068030988655701</v>
+        <v>0.0232237398229301</v>
       </c>
       <c r="G2" t="n">
-        <v>0.479752011607967</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.293256571607087</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.622937544285859</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.581196581196581</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0149725948041531</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.619156244264401</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0407640474466782</v>
+        <v>0.0457433290978399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.346283783783784</v>
+        <v>0.0262508903838544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.581833060556465</v>
+        <v>0.0720578390681483</v>
       </c>
       <c r="D3" t="n">
-        <v>0.106806485561179</v>
+        <v>0.281701386780038</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0736277552969174</v>
+        <v>0.290909090909091</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0368489642219627</v>
+        <v>0.0192196467500111</v>
       </c>
       <c r="G3" t="n">
-        <v>0.711647539902387</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.641295130985853</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.545669264770388</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.683760683760684</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.354455386717764</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.558333333333333</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.718791787933611</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.0297377067438882</v>
+        <v>0.00397768079111651</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.669341216216216</v>
+        <v>0.0760554016620499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.573820240043644</v>
+        <v>0.10844825277815</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0462848347387613</v>
+        <v>0.470727806458143</v>
       </c>
       <c r="E4" t="n">
-        <v>0.142434030889382</v>
+        <v>0.2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.322233059147666</v>
+        <v>0.0192196467500111</v>
       </c>
       <c r="G4" t="n">
-        <v>0.846326342171217</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.634042933012005</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.38549785740797</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.41025641025641</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0133683882179938</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.258333333333333</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.52279818558431</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.0237233390878209</v>
+        <v>0.0626484724600851</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.391152871621622</v>
+        <v>0.0713826671943015</v>
       </c>
       <c r="C5" t="n">
-        <v>0.520253682487725</v>
+        <v>0.118088097469541</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0904527998099953</v>
+        <v>0.377570199412896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0303776104236977</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0793025180388808</v>
+        <v>0.0208212839791787</v>
       </c>
       <c r="G5" t="n">
-        <v>0.437936947632239</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.243120453429732</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.456422714849681</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0144378592754334</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.433333333333333</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.508377251632188</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.0377568636186445</v>
+        <v>0.0447489089000608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.18774634009009</v>
+        <v>0.0687043925603482</v>
       </c>
       <c r="C6" t="n">
-        <v>0.655073649754501</v>
+        <v>0.10242334984603</v>
       </c>
       <c r="D6" t="n">
-        <v>0.115516883701332</v>
+        <v>0.442639133515538</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0839126715982315</v>
+        <v>0.618181818181818</v>
       </c>
       <c r="F6" t="n">
-        <v>0.340800059944861</v>
+        <v>0.0184188281354273</v>
       </c>
       <c r="G6" t="n">
-        <v>0.701358659807413</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.640737269603249</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.462293754428586</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.649572649572649</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.454317246706178</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.903641941319909</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.265300439939856</v>
+        <v>0.0367935473178277</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.413745777027027</v>
+        <v>0.0683624851602691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.628648390616476</v>
+        <v>0.10796626054358</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0916066672927048</v>
+        <v>0.549163275635186</v>
       </c>
       <c r="E7" t="n">
-        <v>0.107761864915695</v>
+        <v>0.345454545454545</v>
       </c>
       <c r="F7" t="n">
-        <v>0.324443858444998</v>
+        <v>0.0336343818125195</v>
       </c>
       <c r="G7" t="n">
-        <v>0.803983643318823</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.54924800285625</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.362587306407531</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.367521367521367</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0232609954993093</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.450667295943785</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.0370886005457482</v>
+        <v>0.0477321694933982</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.545897522522523</v>
+        <v>0.1039208547685</v>
       </c>
       <c r="C8" t="n">
-        <v>0.366509819967267</v>
+        <v>0.128932922747356</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0662823125406066</v>
+        <v>0.610238283227047</v>
       </c>
       <c r="E8" t="n">
-        <v>0.275247366770753</v>
+        <v>0.472727272727273</v>
       </c>
       <c r="F8" t="n">
-        <v>0.105364898825311</v>
+        <v>0.0168171909062597</v>
       </c>
       <c r="G8" t="n">
-        <v>0.658884052235853</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.442696478778953</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.248371967473091</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.564102564102564</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.028340983022147</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.645376124177351</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0424347051289191</v>
+        <v>0.0397768079111651</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.447248029279279</v>
+        <v>0.0462524732884844</v>
       </c>
       <c r="C9" t="n">
-        <v>0.670451445717403</v>
+        <v>0.0833846565805329</v>
       </c>
       <c r="D9" t="n">
-        <v>0.150939747850978</v>
+        <v>0.347703208826804</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0710024113583078</v>
+        <v>0.4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.161126755005529</v>
+        <v>0.0288294701250167</v>
       </c>
       <c r="G9" t="n">
-        <v>0.698720485424086</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.65468380416834</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.595876775652057</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.811965811965812</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0475914620560581</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.608333333333333</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.693227405018485</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.242987878450372</v>
+        <v>0.0417656483067234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241976351351351</v>
+        <v>0.0908713889988128</v>
       </c>
       <c r="C10" t="n">
-        <v>0.731016093835243</v>
+        <v>0.11350917124113</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0639832532705463</v>
+        <v>0.594116813442656</v>
       </c>
       <c r="E10" t="n">
-        <v>0.413510842454007</v>
+        <v>0.618181818181818</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0369043866159796</v>
+        <v>0.0184188281354273</v>
       </c>
       <c r="G10" t="n">
-        <v>0.429362880886427</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.467800240996117</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.191753551304113</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.598290598290598</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.0197852145626309</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.466666666666667</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.518865203597368</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.0357520743999555</v>
+        <v>0.0447489089000608</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.524415259009009</v>
+        <v>0.11206964780372</v>
       </c>
       <c r="C11" t="n">
-        <v>0.641639388979815</v>
+        <v>0.153032534475833</v>
       </c>
       <c r="D11" t="n">
-        <v>0.148796851097375</v>
+        <v>0.597746330600263</v>
       </c>
       <c r="E11" t="n">
-        <v>0.188663585520965</v>
+        <v>0.236363636363636</v>
       </c>
       <c r="F11" t="n">
-        <v>0.562348308907576</v>
+        <v>0.0304311073541843</v>
       </c>
       <c r="G11" t="n">
-        <v>0.578419733544387</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.337818538849467</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.283395755305868</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.153846153846154</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.00748629740207655</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.108333333333333</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.107475287763182</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.00300718382803364</v>
+        <v>0.0765703552289929</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.482896959459459</v>
+        <v>0.0589600316580926</v>
       </c>
       <c r="C12" t="n">
-        <v>0.19899072558647</v>
+        <v>0.104592314901593</v>
       </c>
       <c r="D12" t="n">
-        <v>0.13035232276474</v>
+        <v>0.388794007490637</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0581308045921564</v>
+        <v>0.709090909090909</v>
       </c>
       <c r="F12" t="n">
-        <v>0.40726680695183</v>
+        <v>0.0240245584375139</v>
       </c>
       <c r="G12" t="n">
-        <v>0.321725366046696</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.126232873655554</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.620069507709957</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.222222222222222</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.00561472305155742</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.246152232622775</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0100239460934455</v>
+        <v>0.0338102867244904</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.582560529279279</v>
+        <v>0.057991294024535</v>
       </c>
       <c r="C13" t="n">
-        <v>0.407289961811238</v>
+        <v>0.0980854197349043</v>
       </c>
       <c r="D13" t="n">
-        <v>0.101696500994894</v>
+        <v>0.391199109221581</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0172719182203817</v>
+        <v>0.618181818181818</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0379227731060394</v>
+        <v>0.0344352004271033</v>
       </c>
       <c r="G13" t="n">
-        <v>0.554676164094447</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.511201856562681</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.425877113068124</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.743589743589744</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.0171115369190321</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.433333333333333</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.621122735257873</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.265913014423345</v>
+        <v>0.0278437655378156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.609023085585586</v>
+        <v>0.0892758211317768</v>
       </c>
       <c r="C14" t="n">
-        <v>0.197524549918167</v>
+        <v>0.133511848975767</v>
       </c>
       <c r="D14" t="n">
-        <v>0.100464552253956</v>
+        <v>0.525112258325741</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0433265241373936</v>
+        <v>0.345454545454545</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0798844531760579</v>
+        <v>0.0280286515104329</v>
       </c>
       <c r="G14" t="n">
-        <v>0.504418942092072</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.52023921096086</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.397644835847083</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.0224588922062297</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.741666666666667</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.542069797320328</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.450966197026229</v>
+        <v>0.0507154300867355</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0.477829391891892</v>
+        <v>0.0860846853977048</v>
       </c>
       <c r="C15" t="n">
-        <v>0.309260774686307</v>
+        <v>0.133511848975767</v>
       </c>
       <c r="D15" t="n">
-        <v>0.393059596405264</v>
+        <v>0.414331814961028</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0466120694080329</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0604311928761385</v>
+        <v>0.0296302887396005</v>
       </c>
       <c r="G15" t="n">
-        <v>0.654794881941696</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.704333467220065</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.641427944798731</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.623931623931624</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.0144378592754334</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.566666666666667</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.658486064133826</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.0364203374728518</v>
+        <v>0.0676205734489807</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>0.231911599099099</v>
+        <v>0.0835203798971112</v>
       </c>
       <c r="C16" t="n">
-        <v>0.569387615930169</v>
+        <v>0.122185031463382</v>
       </c>
       <c r="D16" t="n">
-        <v>0.321408763576682</v>
+        <v>0.506920943415325</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0118332198467343</v>
+        <v>0.563636363636364</v>
       </c>
       <c r="F16" t="n">
-        <v>0.143266888533594</v>
+        <v>0.0360368376562709</v>
       </c>
       <c r="G16" t="n">
-        <v>0.553357076902783</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.531641897621279</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.434524412052502</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.623931623931624</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.0122989171605543</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.508613230551404</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.480165580739173</v>
+        <v>0.0566819512734103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>0.336711711711712</v>
+        <v>0.079588444796201</v>
       </c>
       <c r="C17" t="n">
-        <v>0.597142662302237</v>
+        <v>0.0935064935064935</v>
       </c>
       <c r="D17" t="n">
-        <v>0.175196992073954</v>
+        <v>0.460684684684685</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0219124996675801</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0754437338554566</v>
+        <v>0.0208212839791787</v>
       </c>
       <c r="G17" t="n">
-        <v>0.74251418018731</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.862208238496898</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.55609542126396</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.683760683760684</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.0157746980972327</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.391666666666667</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.4231626419151</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.464851218651965</v>
+        <v>0.0188939837578034</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>0.349380630630631</v>
+        <v>0.0949742777997626</v>
       </c>
       <c r="C18" t="n">
-        <v>0.319421713038734</v>
+        <v>0.118088097469541</v>
       </c>
       <c r="D18" t="n">
-        <v>0.102234394107135</v>
+        <v>0.526424131997166</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00664561443871136</v>
+        <v>0.109090909090909</v>
       </c>
       <c r="F18" t="n">
-        <v>0.19624288265616</v>
+        <v>0.0216221025937625</v>
       </c>
       <c r="G18" t="n">
-        <v>0.876401530141142</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.931940911322355</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.397341161386105</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.726495726495726</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.0149725948041531</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.633333333333333</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.376963213508482</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.79812886339589</v>
+        <v>0.0517098502845147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>0.462873029279279</v>
+        <v>0.092808864265928</v>
       </c>
       <c r="C19" t="n">
-        <v>0.618419258046918</v>
+        <v>0.131583880037488</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0992239278176594</v>
+        <v>0.611375240408948</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0274399464170085</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="F19" t="n">
-        <v>0.136463789668024</v>
+        <v>0.0224229212083463</v>
       </c>
       <c r="G19" t="n">
-        <v>0.632238490964253</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.596108358994957</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.651719134865202</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.495726495726496</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.0176462724477519</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.510999239623483</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.0273987859887509</v>
+        <v>0.0377879675156069</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.141758607043926</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.149658588833847</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.67806215203968</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0280286515104329</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0666261532512016</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.10819469726949</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.120257062525104</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.663675270776394</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0320327445833519</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0536986906800729</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0449988128215275</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0771187575311287</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.364772142929446</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0216221025937625</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0367935473178277</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0673937475267115</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.104833311018878</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.477622431420184</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0264270142812653</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0457433290978399</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0552560348239019</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.100736377025037</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.384056685899383</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.109090909090909</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0288294701250167</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0298326059333738</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0946893549663633</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0949524702102022</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.444592367648547</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.472727272727273</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0288294701250167</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0447489089000608</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0750296794618124</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.109894229481858</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.385004150217633</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.872727272727273</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0208212839791787</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0348047069222695</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="n">
-        <v>0.337028434684685</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.293235133660666</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.372512773573304</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.698116369838911</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.378757638314343</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="B27" t="n">
+        <v>0.105573407202216</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.142669701432588</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.423150521307825</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.472727272727273</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0376384748854384</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0706038340423181</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0970257222002374</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.139777748025171</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.400979856260755</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.490909090909091</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0344352004271033</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0755759350312138</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0962279382667194</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.14025974025974</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.428558356108918</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.490909090909091</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0200204653645949</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0785591956245511</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0369639889196676</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0862766099879502</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.294820123494281</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.381818181818182</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0352360190416871</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0258549251422573</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0416367233874159</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.101941357611461</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.321363700779431</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.890909090909091</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0208212839791787</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0338102867244904</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0448848436881678</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.101218369259606</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.355705638222492</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.327272727272727</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0240245584375139</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0328158665267112</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.106941036802533</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.101700361494176</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.621695313290819</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.127272727272727</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0320327445833519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0517098502845147</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0257380292837356</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0689248895434462</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.254326956169653</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.490909090909091</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0696731301939058</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.135921810148614</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.519995951007187</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.454545454545454</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0336343818125195</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0228716645489199</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.479752011607967</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.293256571607087</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.622937544285859</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0165502513680651</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0483951162919176</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.711647539902387</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.641295130985853</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.545669264770388</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.557575757575758</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.355489315003485</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0374564941163472</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.846326342171217</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.634042933012005</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.38549785740797</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0149486141388975</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0314899729296724</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.437936947632239</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.243120453429732</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.456422714849681</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0160163722916759</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0454118556985802</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.701358659807413</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.640737269603249</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.462293754428586</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.455191232519168</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.271145240594442</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.803983643318823</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.54924800285625</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.362587306407531</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0248253770520977</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0447489089000608</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.658884052235853</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.442696478778953</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.248371967473091</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.472727272727273</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0298972282777951</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0500524832882161</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.698720485424086</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.65468380416834</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.595876775652057</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.648484848484848</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0491168750278062</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.249010183599433</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.429362880886427</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.467800240996117</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.191753551304113</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.496969696969697</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0213551630555679</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0434230153030219</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.578419733544387</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.337818538849467</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.283395755305868</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.181818181818182</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.00907594429861636</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0109386221755704</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.321725366046696</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.126232873655554</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.620069507709957</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.23030303030303</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.00720736753125417</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0178995635600243</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.554676164094447</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.511201856562681</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.425877113068124</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0186857676736219</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.271752941826418</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.504418942092072</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.52023921096086</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.397644835847083</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.703030303030303</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0240245584375139</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.455333959449754</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.654794881941696</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.704333467220065</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.641427944798731</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.515151515151515</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0160163722916759</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0440859621015413</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.553357076902783</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.531641897621279</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.434524412052502</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.515151515151515</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0138808559861191</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.484301051507283</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.74251418018731</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.862208238496898</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.55609542126396</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.557575757575758</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0173510699826489</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.46910852070788</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.876401530141142</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.931940911322355</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.397341161386105</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.587878787878788</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0165502513680651</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.799734821280592</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.632238490964253</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.596108358994957</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.651719134865202</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.424242424242424</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0192196467500111</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0351361803215292</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="n">
         <v>0.69608231104076</v>
       </c>
-      <c r="H20" t="n">
+      <c r="C54" t="n">
         <v>0.688155487124559</v>
       </c>
-      <c r="I20" t="n">
+      <c r="D54" t="n">
         <v>0.447751121908425</v>
       </c>
-      <c r="J20" t="n">
-        <v>0.547008547008547</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.0312820284301056</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.591666666666667</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.581058758750885</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.583913422806334</v>
+      <c r="E54" t="n">
+        <v>0.460606060606061</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0328335631979357</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.587223541977423</v>
       </c>
     </row>
   </sheetData>

--- a/data/n2-pXRF.xlsx
+++ b/data/n2-pXRF.xlsx
@@ -12,11 +12,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">Sample</t>
   </si>
   <si>
+    <t xml:space="preserve">Al2O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SiO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2O5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CaO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ti</t>
   </si>
   <si>
@@ -26,172 +38,178 @@
     <t xml:space="preserve">Fe</t>
   </si>
   <si>
-    <t xml:space="preserve">Ni</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cu</t>
   </si>
   <si>
+    <t xml:space="preserve">Zn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zr</t>
   </si>
   <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-9</t>
+    <t xml:space="preserve">AY-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-9</t>
   </si>
 </sst>
 </file>
@@ -545,1224 +563,2072 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0583332014246142</v>
+        <v>0.367724067988337</v>
       </c>
       <c r="C2" t="n">
-        <v>0.122185031463382</v>
+        <v>0.546435570311807</v>
       </c>
       <c r="D2" t="n">
-        <v>0.378663427472416</v>
+        <v>0.301404853128991</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2</v>
+        <v>0.203043045071517</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0232237398229301</v>
+        <v>0.490628798055396</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0457433290978399</v>
+        <v>0.344843462246777</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.475629363460771</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.343434343434343</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.655172413793103</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0664916885389326</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.242424242424242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0262508903838544</v>
+        <v>0.551961539586726</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0720578390681483</v>
+        <v>0.702313256474458</v>
       </c>
       <c r="D3" t="n">
-        <v>0.281701386780038</v>
+        <v>0.289097875304772</v>
       </c>
       <c r="E3" t="n">
-        <v>0.290909090909091</v>
+        <v>0.273532938176537</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0192196467500111</v>
+        <v>0.521205142966801</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00397768079111651</v>
+        <v>0.354051565377532</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.467158719368101</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.343434343434343</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.344827586206897</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0853018372703412</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.326118326118326</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0760554016620499</v>
+        <v>0.35349969607432</v>
       </c>
       <c r="C4" t="n">
-        <v>0.10844825277815</v>
+        <v>0.506240579896237</v>
       </c>
       <c r="D4" t="n">
-        <v>0.470727806458143</v>
+        <v>0.366538952745849</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2</v>
+        <v>0.138478815205093</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0192196467500111</v>
+        <v>0.501055459604682</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0626484724600851</v>
+        <v>0.440147329650092</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.510957884173384</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.323232323232323</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.839080459770115</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0721784776902887</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.303030303030303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0713826671943015</v>
+        <v>0.352635051894904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.118088097469541</v>
+        <v>0.548667351487192</v>
       </c>
       <c r="D5" t="n">
-        <v>0.377570199412896</v>
+        <v>0.198537095088819</v>
       </c>
       <c r="E5" t="n">
-        <v>0.654545454545455</v>
+        <v>0.235923805663914</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0208212839791787</v>
+        <v>0.404784750207894</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0447489089000608</v>
+        <v>0.177255985267035</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.348591283329557</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.298850574712644</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0883639545056868</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.352092352092352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0687043925603482</v>
+        <v>0.649841861130344</v>
       </c>
       <c r="C6" t="n">
-        <v>0.10242334984603</v>
+        <v>0.86474641768549</v>
       </c>
       <c r="D6" t="n">
-        <v>0.442639133515538</v>
+        <v>0.327295947985603</v>
       </c>
       <c r="E6" t="n">
-        <v>0.618181818181818</v>
+        <v>0.373016194673827</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0184188281354273</v>
+        <v>0.622337363270006</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0367935473178277</v>
+        <v>0.36279926335175</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.583481704487823</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.383838383838384</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.413793103448276</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.104549431321085</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.395382395382395</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0683624851602691</v>
+        <v>0.422716738016064</v>
       </c>
       <c r="C7" t="n">
-        <v>0.10796626054358</v>
+        <v>0.667643453085208</v>
       </c>
       <c r="D7" t="n">
-        <v>0.549163275635186</v>
+        <v>0.172181585974689</v>
       </c>
       <c r="E7" t="n">
-        <v>0.345454545454545</v>
+        <v>0.253513349207153</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0336343818125195</v>
+        <v>0.412013049318749</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0477321694933982</v>
+        <v>0.14963167587477</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.353490229085063</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.252525252525252</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.229885057471264</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0402449693788277</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0937950937950938</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1039208547685</v>
+        <v>0.435972448405772</v>
       </c>
       <c r="C8" t="n">
-        <v>0.128932922747356</v>
+        <v>0.737917809308056</v>
       </c>
       <c r="D8" t="n">
-        <v>0.610238283227047</v>
+        <v>0.256008359456635</v>
       </c>
       <c r="E8" t="n">
-        <v>0.472727272727273</v>
+        <v>0.294579259334313</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0168171909062597</v>
+        <v>0.617156016119747</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0397768079111651</v>
+        <v>0.274861878453039</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.535506566098001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.448275862068965</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0953630796150481</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.489177489177489</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0462524732884844</v>
+        <v>0.357345087293306</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0833846565805329</v>
+        <v>0.521756809225511</v>
       </c>
       <c r="D9" t="n">
-        <v>0.347703208826804</v>
+        <v>0.21258562637873</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4</v>
+        <v>0.17224783423679</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0288294701250167</v>
+        <v>0.488709780592337</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0417656483067234</v>
+        <v>0.260128913443831</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.448814649358497</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.262626262626263</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.574712643678161</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0704286964129484</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0908713889988128</v>
+        <v>0.450684401623971</v>
       </c>
       <c r="C10" t="n">
-        <v>0.11350917124113</v>
+        <v>0.793791826789323</v>
       </c>
       <c r="D10" t="n">
-        <v>0.594116813442656</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="E10" t="n">
-        <v>0.618181818181818</v>
+        <v>0.264429133525846</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0184188281354273</v>
+        <v>0.422823514360647</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0447489089000608</v>
+        <v>0.261970534069982</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.377704401497739</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.232323232323232</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.252873563218391</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.062992125984252</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.288600288600289</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>0.11206964780372</v>
+        <v>0.42550245253396</v>
       </c>
       <c r="C11" t="n">
-        <v>0.153032534475833</v>
+        <v>0.639405306747622</v>
       </c>
       <c r="D11" t="n">
-        <v>0.597746330600263</v>
+        <v>0.234064785788924</v>
       </c>
       <c r="E11" t="n">
-        <v>0.236363636363636</v>
+        <v>0.345620345508891</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0304311073541843</v>
+        <v>0.487366468368195</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0765703552289929</v>
+        <v>0.441528545119705</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.418147680554207</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.252525252525252</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.28735632183908</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0529308836395451</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.248196248196248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0589600316580926</v>
+        <v>0.360836169431253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.104592314901593</v>
+        <v>0.560739606167053</v>
       </c>
       <c r="D12" t="n">
-        <v>0.388794007490637</v>
+        <v>0.219435736677116</v>
       </c>
       <c r="E12" t="n">
-        <v>0.709090909090909</v>
+        <v>0.214845399125251</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0240245584375139</v>
+        <v>0.477195675813983</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0338102867244904</v>
+        <v>0.394567219152855</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.41646434236509</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.232323232323232</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.494252873563218</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0586176727909011</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.191919191919192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n">
-        <v>0.057991294024535</v>
+        <v>0.276403340256988</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0980854197349043</v>
+        <v>0.565164188778115</v>
       </c>
       <c r="D13" t="n">
-        <v>0.391199109221581</v>
+        <v>0.247416695692558</v>
       </c>
       <c r="E13" t="n">
-        <v>0.618181818181818</v>
+        <v>0.0617001874461725</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0344352004271033</v>
+        <v>0.290667178404657</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0278437655378156</v>
+        <v>0.0460405156537753</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.209079235591812</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.141414141414141</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.241379310344828</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.036745406824147</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.181818181818182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0892758211317768</v>
+        <v>0.68510374104882</v>
       </c>
       <c r="C14" t="n">
-        <v>0.133511848975767</v>
+        <v>0.794070799436246</v>
       </c>
       <c r="D14" t="n">
-        <v>0.525112258325741</v>
+        <v>0.242308138859863</v>
       </c>
       <c r="E14" t="n">
-        <v>0.345454545454545</v>
+        <v>0.154339125588936</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0280286515104329</v>
+        <v>0.598221710484232</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0507154300867355</v>
+        <v>0.357734806629834</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.644276110625533</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.202020202020202</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.574712643678161</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0625546806649169</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.509379509379509</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0860846853977048</v>
+        <v>0.748658338777991</v>
       </c>
       <c r="C15" t="n">
-        <v>0.133511848975767</v>
+        <v>0.850764920068604</v>
       </c>
       <c r="D15" t="n">
-        <v>0.414331814961028</v>
+        <v>0.251132009752699</v>
       </c>
       <c r="E15" t="n">
-        <v>0.654545454545455</v>
+        <v>0.161176689126433</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0296302887396005</v>
+        <v>0.684449561824346</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0676205734489807</v>
+        <v>0.415285451197053</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.706117207816732</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.563218390804598</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0546806649168854</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.497835497835498</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0835203798971112</v>
+        <v>0.360936936234117</v>
       </c>
       <c r="C16" t="n">
-        <v>0.122185031463382</v>
+        <v>0.565476026695772</v>
       </c>
       <c r="D16" t="n">
-        <v>0.506920943415325</v>
+        <v>0.149076976663184</v>
       </c>
       <c r="E16" t="n">
-        <v>0.563636363636364</v>
+        <v>0.086780823074455</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0360368376562709</v>
+        <v>0.455638712978955</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0566819512734103</v>
+        <v>0.297421731123389</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.360547300724051</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.171717171717172</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.275862068965517</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0144356955380577</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.138528138528139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n">
-        <v>0.079588444796201</v>
+        <v>0.310140715964387</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0935064935064935</v>
+        <v>0.475301366889539</v>
       </c>
       <c r="D17" t="n">
-        <v>0.460684684684685</v>
+        <v>0.0929989550679206</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0.155046692672712</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0208212839791787</v>
+        <v>0.492164012025843</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0188939837578034</v>
+        <v>0.306169429097606</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.423845132886601</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.191919191919192</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.448275862068966</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0599300087489064</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.380952380952381</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0949742777997626</v>
+        <v>0.479669484886605</v>
       </c>
       <c r="C18" t="n">
-        <v>0.118088097469541</v>
+        <v>0.705786274851495</v>
       </c>
       <c r="D18" t="n">
-        <v>0.526424131997166</v>
+        <v>0.170672239637757</v>
       </c>
       <c r="E18" t="n">
-        <v>0.109090909090909</v>
+        <v>0.0470979617339615</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0216221025937625</v>
+        <v>0.421736071131581</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0517098502845147</v>
+        <v>0.211325966850829</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.339764548466112</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.101010101010101</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.252873563218391</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0253718285214348</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.193362193362193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n">
-        <v>0.092808864265928</v>
+        <v>0.535881108174788</v>
       </c>
       <c r="C19" t="n">
-        <v>0.131583880037488</v>
+        <v>0.706727138764816</v>
       </c>
       <c r="D19" t="n">
-        <v>0.611375240408948</v>
+        <v>0.170207825380239</v>
       </c>
       <c r="E19" t="n">
-        <v>0.181818181818182</v>
+        <v>0.184936758025567</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0224229212083463</v>
+        <v>0.554276210580183</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0377879675156069</v>
+        <v>0.268876611418048</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.523097342267974</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.151515151515151</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.413793103448276</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.041994750656168</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.32034632034632</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n">
-        <v>0.141758607043926</v>
+        <v>0.363966441404104</v>
       </c>
       <c r="C20" t="n">
-        <v>0.149658588833847</v>
+        <v>0.541726664893471</v>
       </c>
       <c r="D20" t="n">
-        <v>0.67806215203968</v>
+        <v>0.128526645768025</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2</v>
+        <v>0.195926845331577</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0280286515104329</v>
+        <v>0.431970830934561</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0666261532512016</v>
+        <v>0.180939226519337</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.370636539229333</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.121212121212121</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.310344827586207</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0590551181102362</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.272727272727273</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21" t="n">
-        <v>0.10819469726949</v>
+        <v>0.494423695151166</v>
       </c>
       <c r="C21" t="n">
-        <v>0.120257062525104</v>
+        <v>0.728743812921707</v>
       </c>
       <c r="D21" t="n">
-        <v>0.663675270776394</v>
+        <v>0.215023801230698</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0992265734501917</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0320327445833519</v>
+        <v>0.465361734791787</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0536986906800729</v>
+        <v>0.223756906077348</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.378858998845403</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.131313131313131</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.275862068965517</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0332458442694663</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.187590187590188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0449988128215275</v>
+        <v>0.468234078032512</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0771187575311287</v>
+        <v>0.710204742993583</v>
       </c>
       <c r="D22" t="n">
-        <v>0.364772142929446</v>
+        <v>0.132938581214443</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.0178040089839066</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0216221025937625</v>
+        <v>0.438431523060193</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0367935473178277</v>
+        <v>0.238029465930018</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.363018354860639</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.151515151515151</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.241379310344828</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0380577427821522</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.34054834054834</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0673937475267115</v>
+        <v>0.616455543961956</v>
       </c>
       <c r="C23" t="n">
-        <v>0.104833311018878</v>
+        <v>0.81436472195981</v>
       </c>
       <c r="D23" t="n">
-        <v>0.477622431420184</v>
+        <v>0.288052943225357</v>
       </c>
       <c r="E23" t="n">
-        <v>0.363636363636364</v>
+        <v>0.335886654170255</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0264270142812653</v>
+        <v>0.535853642934817</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0457433290978399</v>
+        <v>0.356353591160221</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.549437268675882</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.191919191919192</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.32183908045977</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0739282589676291</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.295815295815296</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0552560348239019</v>
+        <v>0.291940931150269</v>
       </c>
       <c r="C24" t="n">
-        <v>0.100736377025037</v>
+        <v>0.490930713894825</v>
       </c>
       <c r="D24" t="n">
-        <v>0.384056685899383</v>
+        <v>0.181237663996285</v>
       </c>
       <c r="E24" t="n">
-        <v>0.109090909090909</v>
+        <v>0.232288025398112</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0288294701250167</v>
+        <v>0.325337427237255</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0298326059333738</v>
+        <v>0.240331491712707</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.295415061560541</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.282828282828283</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.275862068965517</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0835520559930009</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.202020202020202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0946893549663633</v>
+        <v>0.506954534668656</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0949524702102022</v>
+        <v>0.611174039187632</v>
       </c>
       <c r="D25" t="n">
-        <v>0.444592367648547</v>
+        <v>0.152211772901428</v>
       </c>
       <c r="E25" t="n">
-        <v>0.472727272727273</v>
+        <v>0.234304338281237</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0288294701250167</v>
+        <v>0.713106889272692</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0447489089000608</v>
+        <v>0.469613259668508</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.682205173027743</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.282828282828283</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.747126436781609</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0809273840769904</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.59018759018759</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0750296794618124</v>
+        <v>0.355385010450493</v>
       </c>
       <c r="C26" t="n">
-        <v>0.109894229481858</v>
+        <v>0.603060903168212</v>
       </c>
       <c r="D26" t="n">
-        <v>0.385004150217633</v>
+        <v>0.160919540229885</v>
       </c>
       <c r="E26" t="n">
-        <v>0.872727272727273</v>
+        <v>0.242080821385751</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0208212839791787</v>
+        <v>0.426853451033071</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0348047069222695</v>
+        <v>0.21316758747698</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.334164211798474</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.191919191919192</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.32183908045977</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0450568678915136</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.124098124098124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105573407202216</v>
+        <v>0.586326269905507</v>
       </c>
       <c r="C27" t="n">
-        <v>0.142669701432588</v>
+        <v>0.754422289685197</v>
       </c>
       <c r="D27" t="n">
-        <v>0.423150521307825</v>
+        <v>0.122373156855915</v>
       </c>
       <c r="E27" t="n">
-        <v>0.472727272727273</v>
+        <v>0.137658104936083</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0376384748854384</v>
+        <v>0.6655792234376</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0706038340423181</v>
+        <v>0.312615101289135</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.48539488308353</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.171717171717172</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.241379310344828</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0853018372703412</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.518037518037518</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0970257222002374</v>
+        <v>0.388644556479793</v>
       </c>
       <c r="C28" t="n">
-        <v>0.139777748025171</v>
+        <v>0.636889202764963</v>
       </c>
       <c r="D28" t="n">
-        <v>0.400979856260755</v>
+        <v>0.151515151515152</v>
       </c>
       <c r="E28" t="n">
-        <v>0.490909090909091</v>
+        <v>0.0969029163922522</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0344352004271033</v>
+        <v>0.46286701208981</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0755759350312138</v>
+        <v>0.192449355432781</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.336138896981861</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.161616161616162</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.241379310344828</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0516185476815398</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.177489177489178</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0962279382667194</v>
+        <v>0.489404858260115</v>
       </c>
       <c r="C29" t="n">
-        <v>0.14025974025974</v>
+        <v>0.628892241656043</v>
       </c>
       <c r="D29" t="n">
-        <v>0.428558356108918</v>
+        <v>0.140601416463485</v>
       </c>
       <c r="E29" t="n">
-        <v>0.490909090909091</v>
+        <v>0.122115270952598</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0200204653645949</v>
+        <v>0.510202776178597</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0785591956245511</v>
+        <v>0.185543278084715</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.458472262687083</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.202020202020202</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.390804597701149</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0249343832020997</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.212121212121212</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0369639889196676</v>
+        <v>0.348133051186285</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0862766099879502</v>
+        <v>0.553147728627638</v>
       </c>
       <c r="D30" t="n">
-        <v>0.294820123494281</v>
+        <v>0.0960176477417857</v>
       </c>
       <c r="E30" t="n">
-        <v>0.381818181818182</v>
+        <v>0.142399986490366</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0352360190416871</v>
+        <v>0.47546856009723</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0258549251422573</v>
+        <v>0.162983425414365</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.417154942647805</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.191919191919192</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.448275862068966</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0599300087489064</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.393939393939394</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0416367233874159</v>
+        <v>0.80148289727312</v>
       </c>
       <c r="C31" t="n">
-        <v>0.101941357611461</v>
+        <v>0.785319465717701</v>
       </c>
       <c r="D31" t="n">
-        <v>0.321363700779431</v>
+        <v>0.169859514687101</v>
       </c>
       <c r="E31" t="n">
-        <v>0.890909090909091</v>
+        <v>0.185669655673202</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0208212839791787</v>
+        <v>0.777521908782703</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0338102867244904</v>
+        <v>0.586556169429098</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.848639841161935</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.71264367816092</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0594925634295713</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.378066378066378</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0448848436881678</v>
+        <v>0.237929924814963</v>
       </c>
       <c r="C32" t="n">
-        <v>0.101218369259606</v>
+        <v>0.426790698669797</v>
       </c>
       <c r="D32" t="n">
-        <v>0.355705638222492</v>
+        <v>0.132125856263787</v>
       </c>
       <c r="E32" t="n">
-        <v>0.327272727272727</v>
+        <v>0.0443267980478579</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0240245584375139</v>
+        <v>0.327640248192925</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0328158665267112</v>
+        <v>0.155156537753223</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.255683964045623</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.141414141414141</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.241379310344828</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.005249343832021</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.118326118326118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33" t="n">
-        <v>0.106941036802533</v>
+        <v>0.329461937778124</v>
       </c>
       <c r="C33" t="n">
-        <v>0.101700361494176</v>
+        <v>0.556003185638335</v>
       </c>
       <c r="D33" t="n">
-        <v>0.621695313290819</v>
+        <v>0.129223267154302</v>
       </c>
       <c r="E33" t="n">
-        <v>0.127272727272727</v>
+        <v>0.206682202745833</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0320327445833519</v>
+        <v>0.440798311264632</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0517098502845147</v>
+        <v>0.2048802946593</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.386520345731767</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.242424242424242</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.402298850574713</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0612423447069116</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.414141414141414</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0257380292837356</v>
+        <v>0.279185804232856</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0689248895434462</v>
+        <v>0.433739792658357</v>
       </c>
       <c r="D34" t="n">
-        <v>0.254326956169653</v>
+        <v>0.0673400673400673</v>
       </c>
       <c r="E34" t="n">
-        <v>0.490909090909091</v>
+        <v>0.145022544201834</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.359048167338323</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.203499079189687</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.315323772835669</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.212121212121212</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.390804597701149</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0538057742782152</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.271284271284271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0696731301939058</v>
+        <v>0.356561706664586</v>
       </c>
       <c r="C35" t="n">
-        <v>0.135921810148614</v>
+        <v>0.520438376853066</v>
       </c>
       <c r="D35" t="n">
-        <v>0.519995951007187</v>
+        <v>0.382329037501451</v>
       </c>
       <c r="E35" t="n">
-        <v>0.454545454545454</v>
+        <v>0.260040191161322</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0336343818125195</v>
+        <v>0.568029169065439</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0228716645489199</v>
+        <v>0.392725598526704</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.422258910362241</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.563218390804598</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0669291338582677</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.210678210678211</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36" t="n">
-        <v>0.479752011607967</v>
+        <v>0.294101728963305</v>
       </c>
       <c r="C36" t="n">
-        <v>0.293256571607087</v>
+        <v>0.559441236895929</v>
       </c>
       <c r="D36" t="n">
-        <v>0.622937544285859</v>
+        <v>0.110240334378265</v>
       </c>
       <c r="E36" t="n">
-        <v>0.484848484848485</v>
+        <v>0.124162824864481</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0165502513680651</v>
+        <v>0.403713298791019</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0483951162919176</v>
+        <v>0.240676795580111</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.346379204298987</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.181818181818182</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.413793103448276</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0469160104986877</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.313852813852814</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37" t="n">
-        <v>0.711647539902387</v>
+        <v>0.719559486544381</v>
       </c>
       <c r="C37" t="n">
-        <v>0.641295130985853</v>
+        <v>0.888170184014944</v>
       </c>
       <c r="D37" t="n">
-        <v>0.545669264770388</v>
+        <v>0.2347614071752</v>
       </c>
       <c r="E37" t="n">
-        <v>0.557575757575758</v>
+        <v>0.168509043011297</v>
       </c>
       <c r="F37" t="n">
-        <v>0.355489315003485</v>
+        <v>0.607624896053221</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0374564941163472</v>
+        <v>0.479281767955801</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.760739373927681</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.282828282828283</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.586206896551724</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0638670166229221</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.395382395382395</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38" t="n">
-        <v>0.846326342171217</v>
+        <v>0.498873687187339</v>
       </c>
       <c r="C38" t="n">
-        <v>0.634042933012005</v>
+        <v>0.697327671335064</v>
       </c>
       <c r="D38" t="n">
-        <v>0.38549785740797</v>
+        <v>0.366538952745849</v>
       </c>
       <c r="E38" t="n">
-        <v>0.363636363636364</v>
+        <v>0.0820845365351166</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0149486141388975</v>
+        <v>0.53898803812448</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0314899729296724</v>
+        <v>0.269797421731123</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.433373258662178</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.171717171717172</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.35632183908046</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.062992125984252</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.336219336219336</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39" t="n">
-        <v>0.437936947632239</v>
+        <v>0.122483674152665</v>
       </c>
       <c r="C39" t="n">
-        <v>0.243120453429732</v>
+        <v>0.24994191254475</v>
       </c>
       <c r="D39" t="n">
-        <v>0.456422714849681</v>
+        <v>0.916637640775572</v>
       </c>
       <c r="E39" t="n">
-        <v>0.545454545454545</v>
+        <v>0.767075333096915</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0160163722916759</v>
+        <v>0.287276914219919</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0454118556985802</v>
+        <v>0.121086556169429</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.243749527909963</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.585858585858586</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.252873563218391</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.440507436570429</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.411255411255411</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40" t="n">
-        <v>0.701358659807413</v>
+        <v>0.189106783556158</v>
       </c>
       <c r="C40" t="n">
-        <v>0.640737269603249</v>
+        <v>0.344655036946679</v>
       </c>
       <c r="D40" t="n">
-        <v>0.462293754428586</v>
+        <v>0.698246836177871</v>
       </c>
       <c r="E40" t="n">
-        <v>0.533333333333333</v>
+        <v>0.898730094398568</v>
       </c>
       <c r="F40" t="n">
-        <v>0.455191232519168</v>
+        <v>0.310880829015544</v>
       </c>
       <c r="G40" t="n">
-        <v>0.271145240594442</v>
+        <v>0.161141804788214</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.353468647826228</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.626262626262626</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.183908045977011</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.189851268591426</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.26984126984127</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41" t="n">
-        <v>0.803983643318823</v>
+        <v>0.161334152469924</v>
       </c>
       <c r="C41" t="n">
-        <v>0.54924800285625</v>
+        <v>0.300747035246856</v>
       </c>
       <c r="D41" t="n">
-        <v>0.362587306407531</v>
+        <v>0.643910368048299</v>
       </c>
       <c r="E41" t="n">
-        <v>0.333333333333333</v>
+        <v>0.691956701622845</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0248253770520977</v>
+        <v>0.340817501439263</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0447489089000608</v>
+        <v>0.154696132596685</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.762973034217086</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.515151515151515</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.195402298850575</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.162292213473316</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.235209235209235</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42" t="n">
-        <v>0.658884052235853</v>
+        <v>0.202577029719706</v>
       </c>
       <c r="C42" t="n">
-        <v>0.442696478778953</v>
+        <v>0.361953633981773</v>
       </c>
       <c r="D42" t="n">
-        <v>0.248371967473091</v>
+        <v>0.41507024265645</v>
       </c>
       <c r="E42" t="n">
-        <v>0.472727272727273</v>
+        <v>0.476684060320516</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0298972282777951</v>
+        <v>0.432866372417322</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0500524832882161</v>
+        <v>0.223756906077348</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.497750153766469</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.525252525252525</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.505747126436782</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.166229221347332</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.402597402597403</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43" t="n">
-        <v>0.698720485424086</v>
+        <v>0.34537659154664</v>
       </c>
       <c r="C43" t="n">
-        <v>0.65468380416834</v>
+        <v>0.569530683933927</v>
       </c>
       <c r="D43" t="n">
-        <v>0.595876775652057</v>
+        <v>0.19830488796006</v>
       </c>
       <c r="E43" t="n">
-        <v>0.648484848484848</v>
+        <v>0.2158738200179</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0491168750278062</v>
+        <v>0.443932706454295</v>
       </c>
       <c r="G43" t="n">
-        <v>0.249010183599433</v>
+        <v>0.169889502762431</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.343206759250267</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.344827586206897</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0791776027996501</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.271284271284271</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44" t="n">
-        <v>0.429362880886427</v>
+        <v>0.751535068472668</v>
       </c>
       <c r="C44" t="n">
-        <v>0.467800240996117</v>
+        <v>0.847929335082071</v>
       </c>
       <c r="D44" t="n">
-        <v>0.191753551304113</v>
+        <v>0.863578311854174</v>
       </c>
       <c r="E44" t="n">
-        <v>0.496969696969697</v>
+        <v>0.784443656382458</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0213551630555679</v>
+        <v>0.928484615876671</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0434230153030219</v>
+        <v>0.629373848987109</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.886698391117154</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.94949494949495</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.357392825896763</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.874458874458874</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45" t="n">
-        <v>0.578419733544387</v>
+        <v>0.147012264295071</v>
       </c>
       <c r="C45" t="n">
-        <v>0.337818538849467</v>
+        <v>0.272357555802172</v>
       </c>
       <c r="D45" t="n">
-        <v>0.283395755305868</v>
+        <v>0.337513061650993</v>
       </c>
       <c r="E45" t="n">
-        <v>0.181818181818182</v>
+        <v>0.481154060489386</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00907594429861636</v>
+        <v>0.323482377022964</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0109386221755704</v>
+        <v>0.141804788213628</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.294195720436373</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.515151515151515</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.32183908045977</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.329396325459318</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.341991341991342</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46" t="n">
-        <v>0.321725366046696</v>
+        <v>0.588416368429436</v>
       </c>
       <c r="C46" t="n">
-        <v>0.126232873655554</v>
+        <v>0.789186867343538</v>
       </c>
       <c r="D46" t="n">
-        <v>0.620069507709957</v>
+        <v>0.318123766399628</v>
       </c>
       <c r="E46" t="n">
-        <v>0.23030303030303</v>
+        <v>0.296649610753669</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00720736753125417</v>
+        <v>0.569436448538348</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0178995635600243</v>
+        <v>0.363720073664825</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.522784414014869</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.262626262626263</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.115485564304462</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.329004329004329</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47" t="n">
-        <v>0.554676164094447</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="C47" t="n">
-        <v>0.511201856562681</v>
+        <v>0.643601361080794</v>
       </c>
       <c r="D47" t="n">
-        <v>0.425877113068124</v>
+        <v>0.19029374201788</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6</v>
+        <v>0.0805292399142138</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0186857676736219</v>
+        <v>0.377278833237382</v>
       </c>
       <c r="G47" t="n">
-        <v>0.271752941826418</v>
+        <v>0.113720073664825</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.235095443117197</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0808080808080808</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.252873563218391</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.0271216097987752</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.229437229437229</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48" t="n">
-        <v>0.504418942092072</v>
+        <v>0.393656892286789</v>
       </c>
       <c r="C48" t="n">
-        <v>0.52023921096086</v>
+        <v>0.726104655250953</v>
       </c>
       <c r="D48" t="n">
-        <v>0.397644835847083</v>
+        <v>0.200859166376408</v>
       </c>
       <c r="E48" t="n">
-        <v>0.703030303030303</v>
+        <v>0.0524477768208454</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0240245584375139</v>
+        <v>0.316573914155952</v>
       </c>
       <c r="G48" t="n">
-        <v>0.455333959449754</v>
+        <v>0.449815837937385</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.246436394634899</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0808080808080808</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.206896551724138</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0201224846894138</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.163059163059163</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49" t="n">
-        <v>0.654794881941696</v>
+        <v>0.380453190569527</v>
       </c>
       <c r="C49" t="n">
-        <v>0.704333467220065</v>
+        <v>0.666395337105961</v>
       </c>
       <c r="D49" t="n">
-        <v>0.641427944798731</v>
+        <v>0.156739811912226</v>
       </c>
       <c r="E49" t="n">
-        <v>0.515151515151515</v>
+        <v>0.264641910262256</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0160163722916759</v>
+        <v>0.39000831574234</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0440859621015413</v>
+        <v>0.215930018416206</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.359738003517745</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.171717171717172</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.275862068965517</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0494313210848644</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.206349206349206</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50" t="n">
-        <v>0.553357076902783</v>
+        <v>0.276695889039497</v>
       </c>
       <c r="C50" t="n">
-        <v>0.531641897621279</v>
+        <v>0.415477402451291</v>
       </c>
       <c r="D50" t="n">
-        <v>0.434524412052502</v>
+        <v>0.380935794728898</v>
       </c>
       <c r="E50" t="n">
-        <v>0.515151515151515</v>
+        <v>0.279825050238952</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0138808559861191</v>
+        <v>0.366404400946715</v>
       </c>
       <c r="G50" t="n">
-        <v>0.484301051507283</v>
+        <v>0.170810313075506</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.278959351698985</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.262626262626263</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.35632183908046</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0931758530183727</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.421356421356421</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51" t="n">
-        <v>0.74251418018731</v>
+        <v>0.712535065222126</v>
       </c>
       <c r="C51" t="n">
-        <v>0.862208238496898</v>
+        <v>0.847087831289572</v>
       </c>
       <c r="D51" t="n">
-        <v>0.55609542126396</v>
+        <v>0.366190642052711</v>
       </c>
       <c r="E51" t="n">
-        <v>0.557575757575758</v>
+        <v>0.188798824661837</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0173510699826489</v>
+        <v>0.611718799974413</v>
       </c>
       <c r="G51" t="n">
-        <v>0.46910852070788</v>
+        <v>0.61878453038674</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.718882522417533</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.620689655172414</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.313131313131313</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52" t="n">
-        <v>0.876401530141142</v>
+        <v>0.598840856712857</v>
       </c>
       <c r="C52" t="n">
-        <v>0.931940911322355</v>
+        <v>0.903327952600636</v>
       </c>
       <c r="D52" t="n">
-        <v>0.397341161386105</v>
+        <v>0.254034598862185</v>
       </c>
       <c r="E52" t="n">
-        <v>0.587878787878788</v>
+        <v>0.146094871405171</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0165502513680651</v>
+        <v>0.501887033838675</v>
       </c>
       <c r="G52" t="n">
-        <v>0.799734821280592</v>
+        <v>0.298802946593002</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.484466888953633</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.121212121212121</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.32183908045977</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.0454943132108487</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.24963924963925</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53" t="n">
-        <v>0.632238490964253</v>
+        <v>0.208879830711771</v>
       </c>
       <c r="C53" t="n">
-        <v>0.596108358994957</v>
+        <v>0.387663447398752</v>
       </c>
       <c r="D53" t="n">
-        <v>0.651719134865202</v>
+        <v>0.106931382793452</v>
       </c>
       <c r="E53" t="n">
-        <v>0.424242424242424</v>
+        <v>0.185497407838965</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0192196467500111</v>
+        <v>0.345998848589522</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0351361803215292</v>
+        <v>0.124769797421731</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.25669828321086</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.242424242424242</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.379310344827586</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.0748031496062992</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.297258297258297</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54" t="n">
-        <v>0.69608231104076</v>
+        <v>0.60533218914254</v>
       </c>
       <c r="C54" t="n">
-        <v>0.688155487124559</v>
+        <v>0.806671191373707</v>
       </c>
       <c r="D54" t="n">
-        <v>0.447751121908425</v>
+        <v>0.236502960640892</v>
       </c>
       <c r="E54" t="n">
-        <v>0.460606060606061</v>
+        <v>0.245377172095851</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0328335631979357</v>
+        <v>0.6156208021493</v>
       </c>
       <c r="G54" t="n">
-        <v>0.587223541977423</v>
+        <v>0.430018416206262</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.621119419895762</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.242424242424242</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.402298850574713</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0691163604549431</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.366522366522366</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.32530774506649</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.4889404542439</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.191803088354812</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.208244254183765</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.410797671592145</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.195211786372007</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.332038457803244</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.344827586206897</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.0678040244969379</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.350649350649351</v>
       </c>
     </row>
   </sheetData>
